--- a/RCode/2022-10-26ABBAcor.xlsx
+++ b/RCode/2022-10-26ABBAcor.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="256">
   <si>
     <t>num.1</t>
   </si>
@@ -149,67 +149,67 @@
     <t>MLE.closeform</t>
   </si>
   <si>
-    <t>0.98868</t>
+    <t>0.98926</t>
   </si>
   <si>
     <t>I.hat.cor</t>
   </si>
   <si>
-    <t>10.614</t>
-  </si>
-  <si>
-    <t>7.0241</t>
-  </si>
-  <si>
-    <t>5.9332</t>
-  </si>
-  <si>
-    <t>5.5525</t>
+    <t>10.641</t>
+  </si>
+  <si>
+    <t>7.043</t>
+  </si>
+  <si>
+    <t>5.9408</t>
+  </si>
+  <si>
+    <t>5.5816</t>
   </si>
   <si>
     <t>V.hat.cor</t>
   </si>
   <si>
-    <t>28.258</t>
-  </si>
-  <si>
-    <t>18.709</t>
-  </si>
-  <si>
-    <t>15.648</t>
-  </si>
-  <si>
-    <t>15.107</t>
+    <t>28.266</t>
+  </si>
+  <si>
+    <t>18.635</t>
+  </si>
+  <si>
+    <t>15.639</t>
+  </si>
+  <si>
+    <t>15.221</t>
   </si>
   <si>
     <t>NS.MLE.closeform.cor</t>
   </si>
   <si>
-    <t>1.1105</t>
-  </si>
-  <si>
-    <t>-0.38308</t>
-  </si>
-  <si>
-    <t>-0.40256</t>
-  </si>
-  <si>
-    <t>-0.6982</t>
+    <t>1.0587</t>
+  </si>
+  <si>
+    <t>-0.36579</t>
+  </si>
+  <si>
+    <t>-0.34699</t>
+  </si>
+  <si>
+    <t>-0.67506</t>
   </si>
   <si>
     <t>inv(I.hat.cor).V.hat.cor.inv(I.hat.cor)</t>
   </si>
   <si>
-    <t>1.056</t>
-  </si>
-  <si>
-    <t>-0.3621</t>
-  </si>
-  <si>
-    <t>-0.36526</t>
-  </si>
-  <si>
-    <t>-0.68976</t>
+    <t>1.0286</t>
+  </si>
+  <si>
+    <t>-0.35479</t>
+  </si>
+  <si>
+    <t>-0.35322</t>
+  </si>
+  <si>
+    <t>-0.67345</t>
   </si>
   <si>
     <t>eta_hat</t>
@@ -218,571 +218,568 @@
     <t/>
   </si>
   <si>
-    <t>0.70394</t>
-  </si>
-  <si>
-    <t>3.7024</t>
-  </si>
-  <si>
-    <t>3.3217</t>
-  </si>
-  <si>
-    <t>14.754</t>
-  </si>
-  <si>
-    <t>10.343</t>
-  </si>
-  <si>
-    <t>9.0572</t>
-  </si>
-  <si>
-    <t>0.44171</t>
-  </si>
-  <si>
-    <t>0.063812</t>
-  </si>
-  <si>
-    <t>0.074342</t>
-  </si>
-  <si>
-    <t>0.42933</t>
-  </si>
-  <si>
-    <t>0.067234</t>
-  </si>
-  <si>
-    <t>0.077034</t>
+    <t>0.7041</t>
+  </si>
+  <si>
+    <t>3.7011</t>
+  </si>
+  <si>
+    <t>3.3419</t>
+  </si>
+  <si>
+    <t>14.651</t>
+  </si>
+  <si>
+    <t>10.297</t>
+  </si>
+  <si>
+    <t>9.0947</t>
+  </si>
+  <si>
+    <t>0.43585</t>
+  </si>
+  <si>
+    <t>0.060346</t>
+  </si>
+  <si>
+    <t>0.057471</t>
+  </si>
+  <si>
+    <t>0.42066</t>
+  </si>
+  <si>
+    <t>0.063905</t>
+  </si>
+  <si>
+    <t>0.0759</t>
   </si>
   <si>
     <t>gamma_hat</t>
   </si>
   <si>
-    <t>0.3038</t>
-  </si>
-  <si>
-    <t>2.2308</t>
-  </si>
-  <si>
-    <t>11.646</t>
-  </si>
-  <si>
-    <t>6.0737</t>
-  </si>
-  <si>
-    <t>0.46416</t>
-  </si>
-  <si>
-    <t>0.18573</t>
-  </si>
-  <si>
-    <t>0.42707</t>
-  </si>
-  <si>
-    <t>0.15401</t>
+    <t>0.30231</t>
+  </si>
+  <si>
+    <t>2.2397</t>
+  </si>
+  <si>
+    <t>11.641</t>
+  </si>
+  <si>
+    <t>6.1039</t>
+  </si>
+  <si>
+    <t>0.42248</t>
+  </si>
+  <si>
+    <t>0.1268</t>
+  </si>
+  <si>
+    <t>0.41784</t>
+  </si>
+  <si>
+    <t>0.147</t>
   </si>
   <si>
     <t>delta_hat</t>
   </si>
   <si>
-    <t>0.19491</t>
-  </si>
-  <si>
-    <t>15.04</t>
-  </si>
-  <si>
-    <t>1.0759</t>
-  </si>
-  <si>
-    <t>1.0683</t>
-  </si>
-  <si>
-    <t>0.99503</t>
+    <t>0.20028</t>
+  </si>
+  <si>
+    <t>15.228</t>
+  </si>
+  <si>
+    <t>1.0792</t>
+  </si>
+  <si>
+    <t>1.0578</t>
+  </si>
+  <si>
+    <t>0.99675</t>
+  </si>
+  <si>
+    <t>10.634</t>
+  </si>
+  <si>
+    <t>7.0336</t>
+  </si>
+  <si>
+    <t>5.9297</t>
+  </si>
+  <si>
+    <t>5.5806</t>
+  </si>
+  <si>
+    <t>28.937</t>
+  </si>
+  <si>
+    <t>19.072</t>
+  </si>
+  <si>
+    <t>16.002</t>
+  </si>
+  <si>
+    <t>15.687</t>
+  </si>
+  <si>
+    <t>1.0358</t>
+  </si>
+  <si>
+    <t>-0.34772</t>
+  </si>
+  <si>
+    <t>-0.35773</t>
+  </si>
+  <si>
+    <t>-0.68348</t>
+  </si>
+  <si>
+    <t>1.0394</t>
+  </si>
+  <si>
+    <t>-0.3585</t>
+  </si>
+  <si>
+    <t>-0.35633</t>
+  </si>
+  <si>
+    <t>-0.68207</t>
+  </si>
+  <si>
+    <t>0.70052</t>
+  </si>
+  <si>
+    <t>3.6914</t>
+  </si>
+  <si>
+    <t>3.3422</t>
+  </si>
+  <si>
+    <t>14.979</t>
+  </si>
+  <si>
+    <t>10.512</t>
+  </si>
+  <si>
+    <t>9.4005</t>
+  </si>
+  <si>
+    <t>0.43027</t>
+  </si>
+  <si>
+    <t>0.063685</t>
+  </si>
+  <si>
+    <t>0.059217</t>
+  </si>
+  <si>
+    <t>0.42823</t>
+  </si>
+  <si>
+    <t>0.062215</t>
+  </si>
+  <si>
+    <t>0.07746</t>
+  </si>
+  <si>
+    <t>0.29879</t>
+  </si>
+  <si>
+    <t>2.2383</t>
+  </si>
+  <si>
+    <t>11.91</t>
+  </si>
+  <si>
+    <t>6.3124</t>
+  </si>
+  <si>
+    <t>0.43329</t>
+  </si>
+  <si>
+    <t>0.15169</t>
+  </si>
+  <si>
+    <t>0.4275</t>
+  </si>
+  <si>
+    <t>0.14868</t>
+  </si>
+  <si>
+    <t>0.19937</t>
+  </si>
+  <si>
+    <t>15.665</t>
+  </si>
+  <si>
+    <t>1.1063</t>
+  </si>
+  <si>
+    <t>1.0787</t>
+  </si>
+  <si>
+    <t>0.99717</t>
+  </si>
+  <si>
+    <t>7.0409</t>
+  </si>
+  <si>
+    <t>5.9341</t>
+  </si>
+  <si>
+    <t>5.5891</t>
+  </si>
+  <si>
+    <t>29.246</t>
+  </si>
+  <si>
+    <t>19.298</t>
+  </si>
+  <si>
+    <t>16.149</t>
+  </si>
+  <si>
+    <t>15.824</t>
+  </si>
+  <si>
+    <t>1.0547</t>
+  </si>
+  <si>
+    <t>-0.35609</t>
+  </si>
+  <si>
+    <t>-0.36132</t>
+  </si>
+  <si>
+    <t>-0.70449</t>
+  </si>
+  <si>
+    <t>1.0604</t>
+  </si>
+  <si>
+    <t>-0.3645</t>
+  </si>
+  <si>
+    <t>-0.36532</t>
+  </si>
+  <si>
+    <t>-0.69643</t>
+  </si>
+  <si>
+    <t>0.70129</t>
+  </si>
+  <si>
+    <t>3.6929</t>
+  </si>
+  <si>
+    <t>3.3479</t>
+  </si>
+  <si>
+    <t>15.173</t>
+  </si>
+  <si>
+    <t>10.626</t>
+  </si>
+  <si>
+    <t>9.4825</t>
+  </si>
+  <si>
+    <t>0.42516</t>
+  </si>
+  <si>
+    <t>0.060826</t>
+  </si>
+  <si>
+    <t>0.080662</t>
+  </si>
+  <si>
+    <t>0.4337</t>
+  </si>
+  <si>
+    <t>0.06495</t>
+  </si>
+  <si>
+    <t>0.079112</t>
+  </si>
+  <si>
+    <t>0.29961</t>
+  </si>
+  <si>
+    <t>2.2412</t>
+  </si>
+  <si>
+    <t>12.023</t>
+  </si>
+  <si>
+    <t>6.3391</t>
+  </si>
+  <si>
+    <t>0.4319</t>
+  </si>
+  <si>
+    <t>0.15057</t>
+  </si>
+  <si>
+    <t>0.43403</t>
+  </si>
+  <si>
+    <t>0.15235</t>
+  </si>
+  <si>
+    <t>0.20146</t>
+  </si>
+  <si>
+    <t>15.839</t>
+  </si>
+  <si>
+    <t>1.1084</t>
+  </si>
+  <si>
+    <t>1.0956</t>
+  </si>
+  <si>
+    <t>0.99806</t>
   </si>
   <si>
     <t>10.638</t>
   </si>
   <si>
-    <t>7.0337</t>
-  </si>
-  <si>
-    <t>5.9329</t>
-  </si>
-  <si>
-    <t>5.5898</t>
-  </si>
-  <si>
-    <t>28.956</t>
-  </si>
-  <si>
-    <t>19.085</t>
-  </si>
-  <si>
-    <t>15.99</t>
-  </si>
-  <si>
-    <t>15.714</t>
-  </si>
-  <si>
-    <t>1.123</t>
-  </si>
-  <si>
-    <t>-0.38337</t>
-  </si>
-  <si>
-    <t>-0.38195</t>
-  </si>
-  <si>
-    <t>-0.74018</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>-0.36969</t>
-  </si>
-  <si>
-    <t>-0.3708</t>
-  </si>
-  <si>
-    <t>-0.70054</t>
-  </si>
-  <si>
-    <t>0.69991</t>
-  </si>
-  <si>
-    <t>3.6884</t>
-  </si>
-  <si>
-    <t>3.3453</t>
-  </si>
-  <si>
-    <t>14.993</t>
-  </si>
-  <si>
-    <t>10.506</t>
-  </si>
-  <si>
-    <t>9.4107</t>
-  </si>
-  <si>
-    <t>0.45136</t>
-  </si>
-  <si>
-    <t>0.068293</t>
-  </si>
-  <si>
-    <t>0.09452</t>
-  </si>
-  <si>
-    <t>0.43456</t>
-  </si>
-  <si>
-    <t>0.066625</t>
-  </si>
-  <si>
-    <t>0.083318</t>
-  </si>
-  <si>
-    <t>0.30028</t>
-  </si>
-  <si>
-    <t>2.2445</t>
-  </si>
-  <si>
-    <t>11.927</t>
-  </si>
-  <si>
-    <t>6.2913</t>
-  </si>
-  <si>
-    <t>0.44558</t>
-  </si>
-  <si>
-    <t>0.15084</t>
-  </si>
-  <si>
-    <t>0.43809</t>
-  </si>
-  <si>
-    <t>0.15442</t>
-  </si>
-  <si>
-    <t>0.20249</t>
-  </si>
-  <si>
-    <t>15.735</t>
-  </si>
-  <si>
-    <t>1.1408</t>
-  </si>
-  <si>
-    <t>1.0973</t>
-  </si>
-  <si>
-    <t>0.9953</t>
-  </si>
-  <si>
-    <t>10.622</t>
-  </si>
-  <si>
-    <t>7.0245</t>
-  </si>
-  <si>
-    <t>5.9269</t>
-  </si>
-  <si>
-    <t>5.5801</t>
-  </si>
-  <si>
-    <t>29.27</t>
-  </si>
-  <si>
-    <t>19.303</t>
-  </si>
-  <si>
-    <t>16.153</t>
-  </si>
-  <si>
-    <t>15.861</t>
-  </si>
-  <si>
-    <t>1.1239</t>
-  </si>
-  <si>
-    <t>-0.38979</t>
-  </si>
-  <si>
-    <t>-0.38877</t>
-  </si>
-  <si>
-    <t>-0.73393</t>
-  </si>
-  <si>
-    <t>1.0672</t>
-  </si>
-  <si>
-    <t>-0.36736</t>
-  </si>
-  <si>
-    <t>-0.36934</t>
-  </si>
-  <si>
-    <t>-0.69751</t>
-  </si>
-  <si>
-    <t>0.69981</t>
-  </si>
-  <si>
-    <t>3.6857</t>
-  </si>
-  <si>
-    <t>3.3388</t>
-  </si>
-  <si>
-    <t>15.166</t>
-  </si>
-  <si>
-    <t>10.637</t>
-  </si>
-  <si>
-    <t>9.4808</t>
-  </si>
-  <si>
-    <t>0.45197</t>
-  </si>
-  <si>
-    <t>0.075751</t>
-  </si>
-  <si>
-    <t>0.095989</t>
-  </si>
-  <si>
-    <t>0.43568</t>
-  </si>
-  <si>
-    <t>0.066652</t>
-  </si>
-  <si>
-    <t>0.078203</t>
-  </si>
-  <si>
-    <t>0.30094</t>
-  </si>
-  <si>
-    <t>2.2412</t>
-  </si>
-  <si>
-    <t>12.019</t>
-  </si>
-  <si>
-    <t>6.3479</t>
-  </si>
-  <si>
-    <t>0.45276</t>
-  </si>
-  <si>
-    <t>0.15239</t>
-  </si>
-  <si>
-    <t>0.43651</t>
-  </si>
-  <si>
-    <t>0.15325</t>
-  </si>
-  <si>
-    <t>0.20201</t>
-  </si>
-  <si>
-    <t>15.87</t>
-  </si>
-  <si>
-    <t>1.137</t>
-  </si>
-  <si>
-    <t>1.1004</t>
-  </si>
-  <si>
-    <t>0.99868</t>
-  </si>
-  <si>
-    <t>10.632</t>
-  </si>
-  <si>
-    <t>7.0318</t>
-  </si>
-  <si>
-    <t>5.9321</t>
-  </si>
-  <si>
-    <t>5.5811</t>
-  </si>
-  <si>
-    <t>29.409</t>
-  </si>
-  <si>
-    <t>19.383</t>
-  </si>
-  <si>
-    <t>16.257</t>
-  </si>
-  <si>
-    <t>15.893</t>
-  </si>
-  <si>
-    <t>1.0539</t>
-  </si>
-  <si>
-    <t>-0.3597</t>
-  </si>
-  <si>
-    <t>-0.36867</t>
-  </si>
-  <si>
-    <t>-0.67429</t>
-  </si>
-  <si>
-    <t>1.074</t>
-  </si>
-  <si>
-    <t>-0.37055</t>
-  </si>
-  <si>
-    <t>-0.36958</t>
-  </si>
-  <si>
-    <t>-0.70316</t>
-  </si>
-  <si>
-    <t>0.69962</t>
-  </si>
-  <si>
-    <t>3.6914</t>
-  </si>
-  <si>
-    <t>3.3404</t>
-  </si>
-  <si>
-    <t>15.224</t>
-  </si>
-  <si>
-    <t>10.689</t>
-  </si>
-  <si>
-    <t>9.5142</t>
-  </si>
-  <si>
-    <t>0.43457</t>
-  </si>
-  <si>
-    <t>0.063865</t>
-  </si>
-  <si>
-    <t>0.066917</t>
-  </si>
-  <si>
-    <t>0.43773</t>
-  </si>
-  <si>
-    <t>0.066552</t>
-  </si>
-  <si>
-    <t>0.081514</t>
-  </si>
-  <si>
-    <t>0.3001</t>
-  </si>
-  <si>
-    <t>2.2407</t>
-  </si>
-  <si>
-    <t>12.099</t>
-  </si>
-  <si>
-    <t>6.3824</t>
-  </si>
-  <si>
-    <t>0.4388</t>
-  </si>
-  <si>
-    <t>0.15183</t>
-  </si>
-  <si>
-    <t>0.43726</t>
-  </si>
-  <si>
-    <t>0.15428</t>
-  </si>
-  <si>
-    <t>0.20016</t>
-  </si>
-  <si>
-    <t>15.88</t>
-  </si>
-  <si>
-    <t>1.0763</t>
-  </si>
-  <si>
-    <t>1.1025</t>
-  </si>
-  <si>
-    <t>0.99914</t>
-  </si>
-  <si>
-    <t>7.0358</t>
-  </si>
-  <si>
-    <t>5.9347</t>
-  </si>
-  <si>
-    <t>5.5842</t>
-  </si>
-  <si>
-    <t>29.429</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>16.255</t>
-  </si>
-  <si>
-    <t>15.935</t>
-  </si>
-  <si>
-    <t>1.0588</t>
-  </si>
-  <si>
-    <t>-0.3787</t>
-  </si>
-  <si>
-    <t>-0.35742</t>
-  </si>
-  <si>
-    <t>-0.69675</t>
-  </si>
-  <si>
-    <t>1.0691</t>
-  </si>
-  <si>
-    <t>-0.36873</t>
-  </si>
-  <si>
-    <t>-0.36811</t>
-  </si>
-  <si>
-    <t>-0.69987</t>
-  </si>
-  <si>
-    <t>0.69987</t>
-  </si>
-  <si>
-    <t>3.6932</t>
-  </si>
-  <si>
-    <t>3.3426</t>
-  </si>
-  <si>
-    <t>15.241</t>
-  </si>
-  <si>
-    <t>10.684</t>
-  </si>
-  <si>
-    <t>9.5429</t>
-  </si>
-  <si>
-    <t>0.44231</t>
-  </si>
-  <si>
-    <t>0.062139</t>
-  </si>
-  <si>
-    <t>0.086685</t>
-  </si>
-  <si>
-    <t>0.43751</t>
-  </si>
-  <si>
-    <t>0.065073</t>
-  </si>
-  <si>
-    <t>0.08051</t>
-  </si>
-  <si>
-    <t>0.30013</t>
-  </si>
-  <si>
-    <t>2.2416</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>6.3925</t>
-  </si>
-  <si>
-    <t>0.4263</t>
-  </si>
-  <si>
-    <t>0.16528</t>
-  </si>
-  <si>
-    <t>0.43745</t>
-  </si>
-  <si>
-    <t>0.15332</t>
-  </si>
-  <si>
-    <t>0.20037</t>
-  </si>
-  <si>
-    <t>15.923</t>
-  </si>
-  <si>
-    <t>1.0959</t>
-  </si>
-  <si>
-    <t>1.1013</t>
+    <t>7.0379</t>
+  </si>
+  <si>
+    <t>5.9361</t>
+  </si>
+  <si>
+    <t>5.5856</t>
+  </si>
+  <si>
+    <t>29.291</t>
+  </si>
+  <si>
+    <t>19.313</t>
+  </si>
+  <si>
+    <t>16.199</t>
+  </si>
+  <si>
+    <t>15.853</t>
+  </si>
+  <si>
+    <t>1.087</t>
+  </si>
+  <si>
+    <t>-0.37996</t>
+  </si>
+  <si>
+    <t>-0.36575</t>
+  </si>
+  <si>
+    <t>-0.72212</t>
+  </si>
+  <si>
+    <t>1.0628</t>
+  </si>
+  <si>
+    <t>-0.36542</t>
+  </si>
+  <si>
+    <t>-0.36646</t>
+  </si>
+  <si>
+    <t>-0.69854</t>
+  </si>
+  <si>
+    <t>3.6942</t>
+  </si>
+  <si>
+    <t>3.3437</t>
+  </si>
+  <si>
+    <t>15.182</t>
+  </si>
+  <si>
+    <t>10.652</t>
+  </si>
+  <si>
+    <t>9.4819</t>
+  </si>
+  <si>
+    <t>0.44736</t>
+  </si>
+  <si>
+    <t>0.069262</t>
+  </si>
+  <si>
+    <t>0.084183</t>
+  </si>
+  <si>
+    <t>0.43494</t>
+  </si>
+  <si>
+    <t>0.06496</t>
+  </si>
+  <si>
+    <t>0.078806</t>
+  </si>
+  <si>
+    <t>0.30055</t>
+  </si>
+  <si>
+    <t>2.2419</t>
+  </si>
+  <si>
+    <t>12.078</t>
+  </si>
+  <si>
+    <t>6.3599</t>
+  </si>
+  <si>
+    <t>0.43767</t>
+  </si>
+  <si>
+    <t>0.15533</t>
+  </si>
+  <si>
+    <t>0.43643</t>
+  </si>
+  <si>
+    <t>0.15305</t>
+  </si>
+  <si>
+    <t>0.20086</t>
+  </si>
+  <si>
+    <t>15.888</t>
+  </si>
+  <si>
+    <t>1.1371</t>
+  </si>
+  <si>
+    <t>1.1006</t>
+  </si>
+  <si>
+    <t>0.99924</t>
+  </si>
+  <si>
+    <t>10.639</t>
+  </si>
+  <si>
+    <t>7.0387</t>
+  </si>
+  <si>
+    <t>5.9353</t>
+  </si>
+  <si>
+    <t>5.5846</t>
+  </si>
+  <si>
+    <t>29.494</t>
+  </si>
+  <si>
+    <t>19.435</t>
+  </si>
+  <si>
+    <t>16.29</t>
+  </si>
+  <si>
+    <t>15.961</t>
+  </si>
+  <si>
+    <t>1.0823</t>
+  </si>
+  <si>
+    <t>-0.37789</t>
+  </si>
+  <si>
+    <t>-0.36505</t>
+  </si>
+  <si>
+    <t>-0.71177</t>
+  </si>
+  <si>
+    <t>1.0681</t>
+  </si>
+  <si>
+    <t>-0.36789</t>
+  </si>
+  <si>
+    <t>-0.36765</t>
+  </si>
+  <si>
+    <t>-0.69937</t>
+  </si>
+  <si>
+    <t>0.7004</t>
+  </si>
+  <si>
+    <t>3.6947</t>
+  </si>
+  <si>
+    <t>3.344</t>
+  </si>
+  <si>
+    <t>15.265</t>
+  </si>
+  <si>
+    <t>10.711</t>
+  </si>
+  <si>
+    <t>9.5462</t>
+  </si>
+  <si>
+    <t>0.45169</t>
+  </si>
+  <si>
+    <t>0.068708</t>
+  </si>
+  <si>
+    <t>0.077904</t>
+  </si>
+  <si>
+    <t>0.43696</t>
+  </si>
+  <si>
+    <t>0.065693</t>
+  </si>
+  <si>
+    <t>0.078988</t>
+  </si>
+  <si>
+    <t>0.29987</t>
+  </si>
+  <si>
+    <t>2.2406</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>6.4025</t>
+  </si>
+  <si>
+    <t>0.4374</t>
+  </si>
+  <si>
+    <t>0.13942</t>
+  </si>
+  <si>
+    <t>0.4366</t>
+  </si>
+  <si>
+    <t>0.15288</t>
+  </si>
+  <si>
+    <t>0.20013</t>
+  </si>
+  <si>
+    <t>15.959</t>
+  </si>
+  <si>
+    <t>1.1357</t>
+  </si>
+  <si>
+    <t>1.1021</t>
   </si>
 </sst>
 </file>
@@ -1058,37 +1055,37 @@
         <v>135</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O4" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
@@ -1185,40 +1182,40 @@
         <v>98</v>
       </c>
       <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
         <v>136</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>137</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>138</v>
       </c>
-      <c r="M6" t="s">
-        <v>139</v>
-      </c>
       <c r="N6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" t="s">
         <v>177</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>178</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>179</v>
       </c>
-      <c r="Q6" t="s">
-        <v>180</v>
-      </c>
       <c r="R6" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="S6" t="s">
+        <v>217</v>
+      </c>
+      <c r="T6" t="s">
         <v>218</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>219</v>
-      </c>
-      <c r="U6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7">
@@ -1250,40 +1247,40 @@
         <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" t="s">
         <v>153</v>
       </c>
-      <c r="M7" t="s">
-        <v>154</v>
-      </c>
       <c r="N7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T7" t="s">
+        <v>233</v>
+      </c>
+      <c r="U7" t="s">
         <v>234</v>
-      </c>
-      <c r="U7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8">
@@ -1315,40 +1312,40 @@
         <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
@@ -1380,40 +1377,40 @@
         <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
@@ -1510,40 +1507,40 @@
         <v>102</v>
       </c>
       <c r="J11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s">
         <v>140</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>141</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>142</v>
       </c>
-      <c r="M11" t="s">
-        <v>143</v>
-      </c>
       <c r="N11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" t="s">
         <v>181</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>182</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>183</v>
       </c>
-      <c r="Q11" t="s">
-        <v>184</v>
-      </c>
       <c r="R11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S11" t="s">
         <v>221</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>222</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>223</v>
-      </c>
-      <c r="U11" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="12">
@@ -1575,40 +1572,40 @@
         <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s">
         <v>155</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>156</v>
       </c>
-      <c r="M12" t="s">
-        <v>157</v>
-      </c>
       <c r="N12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O12" t="s">
+        <v>194</v>
+      </c>
+      <c r="P12" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q12" t="s">
         <v>196</v>
       </c>
-      <c r="P12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>198</v>
-      </c>
       <c r="R12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S12" t="s">
+        <v>235</v>
+      </c>
+      <c r="T12" t="s">
         <v>236</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>237</v>
-      </c>
-      <c r="U12" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="13">
@@ -1640,40 +1637,40 @@
         <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s">
         <v>166</v>
       </c>
-      <c r="M13" t="s">
-        <v>167</v>
-      </c>
       <c r="N13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T13" t="s">
+        <v>246</v>
+      </c>
+      <c r="U13" t="s">
         <v>247</v>
-      </c>
-      <c r="U13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14">
@@ -1705,40 +1702,40 @@
         <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15">
@@ -1835,40 +1832,40 @@
         <v>106</v>
       </c>
       <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
         <v>144</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>145</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>146</v>
       </c>
-      <c r="M16" t="s">
-        <v>147</v>
-      </c>
       <c r="N16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" t="s">
         <v>185</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>186</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>187</v>
       </c>
-      <c r="Q16" t="s">
-        <v>188</v>
-      </c>
       <c r="R16" t="s">
+        <v>224</v>
+      </c>
+      <c r="S16" t="s">
         <v>225</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>226</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>227</v>
-      </c>
-      <c r="U16" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17">
@@ -1900,40 +1897,40 @@
         <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
         <v>158</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>159</v>
       </c>
-      <c r="M17" t="s">
-        <v>160</v>
-      </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" t="s">
         <v>199</v>
       </c>
-      <c r="P17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>201</v>
-      </c>
       <c r="R17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S17" t="s">
+        <v>238</v>
+      </c>
+      <c r="T17" t="s">
         <v>239</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>240</v>
-      </c>
-      <c r="U17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="18">
@@ -1965,40 +1962,40 @@
         <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="s">
         <v>168</v>
       </c>
-      <c r="M18" t="s">
-        <v>169</v>
-      </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T18" t="s">
+        <v>248</v>
+      </c>
+      <c r="U18" t="s">
         <v>249</v>
-      </c>
-      <c r="U18" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="19">
@@ -2030,40 +2027,40 @@
         <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
@@ -2160,40 +2157,40 @@
         <v>110</v>
       </c>
       <c r="J21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" t="s">
         <v>148</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>149</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>150</v>
       </c>
-      <c r="M21" t="s">
-        <v>151</v>
-      </c>
       <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
         <v>189</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>190</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>191</v>
       </c>
-      <c r="Q21" t="s">
-        <v>192</v>
-      </c>
       <c r="R21" t="s">
+        <v>228</v>
+      </c>
+      <c r="S21" t="s">
         <v>229</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>230</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>231</v>
-      </c>
-      <c r="U21" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -2225,40 +2222,40 @@
         <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" t="s">
         <v>161</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>162</v>
       </c>
-      <c r="M22" t="s">
-        <v>163</v>
-      </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
+        <v>200</v>
+      </c>
+      <c r="P22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q22" t="s">
         <v>202</v>
       </c>
-      <c r="P22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>204</v>
-      </c>
       <c r="R22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S22" t="s">
+        <v>241</v>
+      </c>
+      <c r="T22" t="s">
         <v>242</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>243</v>
-      </c>
-      <c r="U22" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23">
@@ -2290,40 +2287,40 @@
         <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" t="s">
         <v>170</v>
       </c>
-      <c r="M23" t="s">
-        <v>171</v>
-      </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T23" t="s">
+        <v>250</v>
+      </c>
+      <c r="U23" t="s">
         <v>251</v>
-      </c>
-      <c r="U23" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="24">
@@ -2355,40 +2352,40 @@
         <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
